--- a/Analytics/D1/Bookings_d1.xlsx
+++ b/Analytics/D1/Bookings_d1.xlsx
@@ -76,57 +76,57 @@
     <t>18</t>
   </si>
   <si>
+    <t>Augsburg</t>
+  </si>
+  <si>
+    <t>Mainz</t>
+  </si>
+  <si>
+    <t>Leverkusen</t>
+  </si>
+  <si>
+    <t>Stuttgart</t>
+  </si>
+  <si>
+    <t>Union Berlin</t>
+  </si>
+  <si>
+    <t>Holstein Kiel</t>
+  </si>
+  <si>
+    <t>Wolfsburg</t>
+  </si>
+  <si>
+    <t>Hoffenheim</t>
+  </si>
+  <si>
+    <t>Mgladbach</t>
+  </si>
+  <si>
+    <t>RB Leipzig</t>
+  </si>
+  <si>
+    <t>Werder Bremen</t>
+  </si>
+  <si>
+    <t>Dortmund</t>
+  </si>
+  <si>
+    <t>Freiburg</t>
+  </si>
+  <si>
+    <t>St Pauli</t>
+  </si>
+  <si>
+    <t>Heidenheim</t>
+  </si>
+  <si>
     <t>Bochum</t>
   </si>
   <si>
-    <t>Mainz</t>
-  </si>
-  <si>
-    <t>Wolfsburg</t>
-  </si>
-  <si>
-    <t>Hoffenheim</t>
-  </si>
-  <si>
-    <t>FC Koln</t>
-  </si>
-  <si>
-    <t>Freiburg</t>
-  </si>
-  <si>
-    <t>Werder Bremen</t>
-  </si>
-  <si>
     <t>Ein Frankfurt</t>
   </si>
   <si>
-    <t>Augsburg</t>
-  </si>
-  <si>
-    <t>Darmstadt</t>
-  </si>
-  <si>
-    <t>RB Leipzig</t>
-  </si>
-  <si>
-    <t>Mgladbach</t>
-  </si>
-  <si>
-    <t>Union Berlin</t>
-  </si>
-  <si>
-    <t>Heidenheim</t>
-  </si>
-  <si>
-    <t>Dortmund</t>
-  </si>
-  <si>
-    <t>Leverkusen</t>
-  </si>
-  <si>
-    <t>Stuttgart</t>
-  </si>
-  <si>
     <t>Bayern Munich</t>
   </si>
   <si>
@@ -136,7 +136,7 @@
     <t>SUM("TBookings")</t>
   </si>
   <si>
-    <t>SUM("TBookings") / 34</t>
+    <t>SUM("TBookings") / 9</t>
   </si>
 </sst>
 </file>
@@ -204,7 +204,7 @@
         <v>20</v>
       </c>
       <c r="C2" t="n">
-        <v>1015.0</v>
+        <v>385.0</v>
       </c>
     </row>
     <row r="3">
@@ -215,7 +215,7 @@
         <v>21</v>
       </c>
       <c r="C3" t="n">
-        <v>990.0</v>
+        <v>325.0</v>
       </c>
     </row>
     <row r="4">
@@ -226,7 +226,7 @@
         <v>22</v>
       </c>
       <c r="C4" t="n">
-        <v>935.0</v>
+        <v>295.0</v>
       </c>
     </row>
     <row r="5">
@@ -237,7 +237,7 @@
         <v>23</v>
       </c>
       <c r="C5" t="n">
-        <v>925.0</v>
+        <v>290.0</v>
       </c>
     </row>
     <row r="6">
@@ -248,7 +248,7 @@
         <v>24</v>
       </c>
       <c r="C6" t="n">
-        <v>855.0</v>
+        <v>285.0</v>
       </c>
     </row>
     <row r="7">
@@ -259,7 +259,7 @@
         <v>25</v>
       </c>
       <c r="C7" t="n">
-        <v>835.0</v>
+        <v>280.0</v>
       </c>
     </row>
     <row r="8">
@@ -270,7 +270,7 @@
         <v>26</v>
       </c>
       <c r="C8" t="n">
-        <v>830.0</v>
+        <v>260.0</v>
       </c>
     </row>
     <row r="9">
@@ -281,7 +281,7 @@
         <v>27</v>
       </c>
       <c r="C9" t="n">
-        <v>825.0</v>
+        <v>240.0</v>
       </c>
     </row>
     <row r="10">
@@ -292,7 +292,7 @@
         <v>28</v>
       </c>
       <c r="C10" t="n">
-        <v>810.0</v>
+        <v>225.0</v>
       </c>
     </row>
     <row r="11">
@@ -303,7 +303,7 @@
         <v>29</v>
       </c>
       <c r="C11" t="n">
-        <v>805.0</v>
+        <v>195.0</v>
       </c>
     </row>
     <row r="12">
@@ -314,7 +314,7 @@
         <v>30</v>
       </c>
       <c r="C12" t="n">
-        <v>730.0</v>
+        <v>195.0</v>
       </c>
     </row>
     <row r="13">
@@ -325,7 +325,7 @@
         <v>31</v>
       </c>
       <c r="C13" t="n">
-        <v>705.0</v>
+        <v>170.0</v>
       </c>
     </row>
     <row r="14">
@@ -336,7 +336,7 @@
         <v>32</v>
       </c>
       <c r="C14" t="n">
-        <v>700.0</v>
+        <v>170.0</v>
       </c>
     </row>
     <row r="15">
@@ -347,7 +347,7 @@
         <v>33</v>
       </c>
       <c r="C15" t="n">
-        <v>680.0</v>
+        <v>140.0</v>
       </c>
     </row>
     <row r="16">
@@ -358,7 +358,7 @@
         <v>34</v>
       </c>
       <c r="C16" t="n">
-        <v>655.0</v>
+        <v>120.0</v>
       </c>
     </row>
     <row r="17">
@@ -369,7 +369,7 @@
         <v>35</v>
       </c>
       <c r="C17" t="n">
-        <v>630.0</v>
+        <v>110.0</v>
       </c>
     </row>
     <row r="18">
@@ -380,7 +380,7 @@
         <v>36</v>
       </c>
       <c r="C18" t="n">
-        <v>570.0</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="19">
@@ -391,7 +391,7 @@
         <v>37</v>
       </c>
       <c r="C19" t="n">
-        <v>550.0</v>
+        <v>90.0</v>
       </c>
     </row>
   </sheetData>
@@ -421,10 +421,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C2" t="n">
-        <v>940.0</v>
+        <v>370.0</v>
       </c>
     </row>
     <row r="3">
@@ -432,10 +432,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C3" t="n">
-        <v>940.0</v>
+        <v>320.0</v>
       </c>
     </row>
     <row r="4">
@@ -443,10 +443,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C4" t="n">
-        <v>930.0</v>
+        <v>310.0</v>
       </c>
     </row>
     <row r="5">
@@ -454,10 +454,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C5" t="n">
-        <v>930.0</v>
+        <v>305.0</v>
       </c>
     </row>
     <row r="6">
@@ -465,10 +465,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C6" t="n">
-        <v>875.0</v>
+        <v>285.0</v>
       </c>
     </row>
     <row r="7">
@@ -476,10 +476,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="C7" t="n">
-        <v>840.0</v>
+        <v>255.0</v>
       </c>
     </row>
     <row r="8">
@@ -487,10 +487,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C8" t="n">
-        <v>815.0</v>
+        <v>250.0</v>
       </c>
     </row>
     <row r="9">
@@ -498,10 +498,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C9" t="n">
-        <v>805.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="10">
@@ -509,10 +509,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C10" t="n">
-        <v>795.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="11">
@@ -520,10 +520,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C11" t="n">
-        <v>770.0</v>
+        <v>215.0</v>
       </c>
     </row>
     <row r="12">
@@ -531,10 +531,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C12" t="n">
-        <v>755.0</v>
+        <v>180.0</v>
       </c>
     </row>
     <row r="13">
@@ -542,10 +542,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C13" t="n">
-        <v>750.0</v>
+        <v>170.0</v>
       </c>
     </row>
     <row r="14">
@@ -553,10 +553,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C14" t="n">
-        <v>720.0</v>
+        <v>165.0</v>
       </c>
     </row>
     <row r="15">
@@ -564,10 +564,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C15" t="n">
-        <v>665.0</v>
+        <v>140.0</v>
       </c>
     </row>
     <row r="16">
@@ -575,10 +575,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C16" t="n">
-        <v>660.0</v>
+        <v>130.0</v>
       </c>
     </row>
     <row r="17">
@@ -586,10 +586,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C17" t="n">
-        <v>630.0</v>
+        <v>120.0</v>
       </c>
     </row>
     <row r="18">
@@ -597,10 +597,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C18" t="n">
-        <v>620.0</v>
+        <v>110.0</v>
       </c>
     </row>
     <row r="19">
@@ -608,10 +608,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C19" t="n">
-        <v>605.0</v>
+        <v>110.0</v>
       </c>
     </row>
   </sheetData>
@@ -644,13 +644,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C2" t="n">
-        <v>1920.0</v>
+        <v>585.0</v>
       </c>
       <c r="D2" t="n">
-        <v>56.470588235294116</v>
+        <v>65.0</v>
       </c>
     </row>
     <row r="3">
@@ -658,13 +658,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" t="n">
-        <v>1875.0</v>
+        <v>575.0</v>
       </c>
       <c r="D3" t="n">
-        <v>55.14705882352941</v>
+        <v>63.888888888888886</v>
       </c>
     </row>
     <row r="4">
@@ -672,13 +672,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C4" t="n">
-        <v>1820.0</v>
+        <v>545.0</v>
       </c>
       <c r="D4" t="n">
-        <v>53.529411764705884</v>
+        <v>60.55555555555556</v>
       </c>
     </row>
     <row r="5">
@@ -689,10 +689,10 @@
         <v>23</v>
       </c>
       <c r="C5" t="n">
-        <v>1800.0</v>
+        <v>545.0</v>
       </c>
       <c r="D5" t="n">
-        <v>52.94117647058823</v>
+        <v>60.55555555555556</v>
       </c>
     </row>
     <row r="6">
@@ -700,13 +700,13 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C6" t="n">
-        <v>1770.0</v>
+        <v>505.0</v>
       </c>
       <c r="D6" t="n">
-        <v>52.05882352941177</v>
+        <v>56.111111111111114</v>
       </c>
     </row>
     <row r="7">
@@ -717,10 +717,10 @@
         <v>30</v>
       </c>
       <c r="C7" t="n">
-        <v>1660.0</v>
+        <v>505.0</v>
       </c>
       <c r="D7" t="n">
-        <v>48.8235294117647</v>
+        <v>56.111111111111114</v>
       </c>
     </row>
     <row r="8">
@@ -728,13 +728,13 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C8" t="n">
-        <v>1650.0</v>
+        <v>490.0</v>
       </c>
       <c r="D8" t="n">
-        <v>48.529411764705884</v>
+        <v>54.44444444444444</v>
       </c>
     </row>
     <row r="9">
@@ -742,13 +742,13 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C9" t="n">
-        <v>1620.0</v>
+        <v>490.0</v>
       </c>
       <c r="D9" t="n">
-        <v>47.64705882352941</v>
+        <v>54.44444444444444</v>
       </c>
     </row>
     <row r="10">
@@ -756,13 +756,13 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C10" t="n">
-        <v>1485.0</v>
+        <v>465.0</v>
       </c>
       <c r="D10" t="n">
-        <v>43.6764705882353</v>
+        <v>51.666666666666664</v>
       </c>
     </row>
     <row r="11">
@@ -770,13 +770,13 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C11" t="n">
-        <v>1470.0</v>
+        <v>415.0</v>
       </c>
       <c r="D11" t="n">
-        <v>43.23529411764706</v>
+        <v>46.111111111111114</v>
       </c>
     </row>
     <row r="12">
@@ -784,13 +784,13 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C12" t="n">
-        <v>1455.0</v>
+        <v>410.0</v>
       </c>
       <c r="D12" t="n">
-        <v>42.794117647058826</v>
+        <v>45.55555555555556</v>
       </c>
     </row>
     <row r="13">
@@ -798,13 +798,13 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C13" t="n">
-        <v>1440.0</v>
+        <v>405.0</v>
       </c>
       <c r="D13" t="n">
-        <v>42.35294117647059</v>
+        <v>45.0</v>
       </c>
     </row>
     <row r="14">
@@ -812,13 +812,13 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C14" t="n">
-        <v>1425.0</v>
+        <v>365.0</v>
       </c>
       <c r="D14" t="n">
-        <v>41.911764705882355</v>
+        <v>40.55555555555556</v>
       </c>
     </row>
     <row r="15">
@@ -826,13 +826,13 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C15" t="n">
-        <v>1410.0</v>
+        <v>360.0</v>
       </c>
       <c r="D15" t="n">
-        <v>41.470588235294116</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="16">
@@ -840,13 +840,13 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C16" t="n">
-        <v>1405.0</v>
+        <v>315.0</v>
       </c>
       <c r="D16" t="n">
-        <v>41.3235294117647</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="17">
@@ -854,13 +854,13 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C17" t="n">
-        <v>1385.0</v>
+        <v>280.0</v>
       </c>
       <c r="D17" t="n">
-        <v>40.73529411764706</v>
+        <v>31.11111111111111</v>
       </c>
     </row>
     <row r="18">
@@ -868,13 +868,13 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C18" t="n">
-        <v>1285.0</v>
+        <v>275.0</v>
       </c>
       <c r="D18" t="n">
-        <v>37.794117647058826</v>
+        <v>30.555555555555557</v>
       </c>
     </row>
     <row r="19">
@@ -885,10 +885,10 @@
         <v>37</v>
       </c>
       <c r="C19" t="n">
-        <v>1215.0</v>
+        <v>220.0</v>
       </c>
       <c r="D19" t="n">
-        <v>35.73529411764706</v>
+        <v>24.444444444444443</v>
       </c>
     </row>
   </sheetData>

--- a/Analytics/D1/Bookings_d1.xlsx
+++ b/Analytics/D1/Bookings_d1.xlsx
@@ -82,52 +82,52 @@
     <t>Mainz</t>
   </si>
   <si>
+    <t>Stuttgart</t>
+  </si>
+  <si>
+    <t>Union Berlin</t>
+  </si>
+  <si>
+    <t>Holstein Kiel</t>
+  </si>
+  <si>
+    <t>Wolfsburg</t>
+  </si>
+  <si>
+    <t>Dortmund</t>
+  </si>
+  <si>
     <t>Leverkusen</t>
   </si>
   <si>
-    <t>Stuttgart</t>
-  </si>
-  <si>
-    <t>Union Berlin</t>
-  </si>
-  <si>
-    <t>Holstein Kiel</t>
-  </si>
-  <si>
-    <t>Wolfsburg</t>
+    <t>Mgladbach</t>
+  </si>
+  <si>
+    <t>RB Leipzig</t>
+  </si>
+  <si>
+    <t>St Pauli</t>
   </si>
   <si>
     <t>Hoffenheim</t>
   </si>
   <si>
-    <t>Mgladbach</t>
-  </si>
-  <si>
-    <t>RB Leipzig</t>
+    <t>Heidenheim</t>
   </si>
   <si>
     <t>Werder Bremen</t>
   </si>
   <si>
-    <t>Dortmund</t>
-  </si>
-  <si>
     <t>Freiburg</t>
   </si>
   <si>
-    <t>St Pauli</t>
-  </si>
-  <si>
-    <t>Heidenheim</t>
+    <t>Ein Frankfurt</t>
+  </si>
+  <si>
+    <t>Bayern Munich</t>
   </si>
   <si>
     <t>Bochum</t>
-  </si>
-  <si>
-    <t>Ein Frankfurt</t>
-  </si>
-  <si>
-    <t>Bayern Munich</t>
   </si>
   <si>
     <t>AwayTeam</t>
@@ -204,7 +204,7 @@
         <v>20</v>
       </c>
       <c r="C2" t="n">
-        <v>385.0</v>
+        <v>525.0</v>
       </c>
     </row>
     <row r="3">
@@ -215,7 +215,7 @@
         <v>21</v>
       </c>
       <c r="C3" t="n">
-        <v>325.0</v>
+        <v>480.0</v>
       </c>
     </row>
     <row r="4">
@@ -226,7 +226,7 @@
         <v>22</v>
       </c>
       <c r="C4" t="n">
-        <v>295.0</v>
+        <v>460.0</v>
       </c>
     </row>
     <row r="5">
@@ -237,7 +237,7 @@
         <v>23</v>
       </c>
       <c r="C5" t="n">
-        <v>290.0</v>
+        <v>430.0</v>
       </c>
     </row>
     <row r="6">
@@ -248,7 +248,7 @@
         <v>24</v>
       </c>
       <c r="C6" t="n">
-        <v>285.0</v>
+        <v>360.0</v>
       </c>
     </row>
     <row r="7">
@@ -259,7 +259,7 @@
         <v>25</v>
       </c>
       <c r="C7" t="n">
-        <v>280.0</v>
+        <v>360.0</v>
       </c>
     </row>
     <row r="8">
@@ -270,7 +270,7 @@
         <v>26</v>
       </c>
       <c r="C8" t="n">
-        <v>260.0</v>
+        <v>360.0</v>
       </c>
     </row>
     <row r="9">
@@ -281,7 +281,7 @@
         <v>27</v>
       </c>
       <c r="C9" t="n">
-        <v>240.0</v>
+        <v>335.0</v>
       </c>
     </row>
     <row r="10">
@@ -292,7 +292,7 @@
         <v>28</v>
       </c>
       <c r="C10" t="n">
-        <v>225.0</v>
+        <v>330.0</v>
       </c>
     </row>
     <row r="11">
@@ -303,7 +303,7 @@
         <v>29</v>
       </c>
       <c r="C11" t="n">
-        <v>195.0</v>
+        <v>305.0</v>
       </c>
     </row>
     <row r="12">
@@ -314,7 +314,7 @@
         <v>30</v>
       </c>
       <c r="C12" t="n">
-        <v>195.0</v>
+        <v>300.0</v>
       </c>
     </row>
     <row r="13">
@@ -325,7 +325,7 @@
         <v>31</v>
       </c>
       <c r="C13" t="n">
-        <v>170.0</v>
+        <v>290.0</v>
       </c>
     </row>
     <row r="14">
@@ -336,7 +336,7 @@
         <v>32</v>
       </c>
       <c r="C14" t="n">
-        <v>170.0</v>
+        <v>280.0</v>
       </c>
     </row>
     <row r="15">
@@ -347,7 +347,7 @@
         <v>33</v>
       </c>
       <c r="C15" t="n">
-        <v>140.0</v>
+        <v>265.0</v>
       </c>
     </row>
     <row r="16">
@@ -358,7 +358,7 @@
         <v>34</v>
       </c>
       <c r="C16" t="n">
-        <v>120.0</v>
+        <v>240.0</v>
       </c>
     </row>
     <row r="17">
@@ -369,7 +369,7 @@
         <v>35</v>
       </c>
       <c r="C17" t="n">
-        <v>110.0</v>
+        <v>180.0</v>
       </c>
     </row>
     <row r="18">
@@ -380,7 +380,7 @@
         <v>36</v>
       </c>
       <c r="C18" t="n">
-        <v>100.0</v>
+        <v>145.0</v>
       </c>
     </row>
     <row r="19">
@@ -391,7 +391,7 @@
         <v>37</v>
       </c>
       <c r="C19" t="n">
-        <v>90.0</v>
+        <v>140.0</v>
       </c>
     </row>
   </sheetData>
@@ -421,10 +421,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C2" t="n">
-        <v>370.0</v>
+        <v>460.0</v>
       </c>
     </row>
     <row r="3">
@@ -432,10 +432,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C3" t="n">
-        <v>320.0</v>
+        <v>445.0</v>
       </c>
     </row>
     <row r="4">
@@ -443,10 +443,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C4" t="n">
-        <v>310.0</v>
+        <v>435.0</v>
       </c>
     </row>
     <row r="5">
@@ -454,10 +454,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C5" t="n">
-        <v>305.0</v>
+        <v>420.0</v>
       </c>
     </row>
     <row r="6">
@@ -465,10 +465,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C6" t="n">
-        <v>285.0</v>
+        <v>380.0</v>
       </c>
     </row>
     <row r="7">
@@ -476,10 +476,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" t="n">
-        <v>255.0</v>
+        <v>345.0</v>
       </c>
     </row>
     <row r="8">
@@ -487,10 +487,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="C8" t="n">
-        <v>250.0</v>
+        <v>340.0</v>
       </c>
     </row>
     <row r="9">
@@ -498,10 +498,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C9" t="n">
-        <v>220.0</v>
+        <v>330.0</v>
       </c>
     </row>
     <row r="10">
@@ -509,10 +509,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C10" t="n">
-        <v>220.0</v>
+        <v>330.0</v>
       </c>
     </row>
     <row r="11">
@@ -520,10 +520,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C11" t="n">
-        <v>215.0</v>
+        <v>325.0</v>
       </c>
     </row>
     <row r="12">
@@ -531,10 +531,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C12" t="n">
-        <v>180.0</v>
+        <v>320.0</v>
       </c>
     </row>
     <row r="13">
@@ -542,10 +542,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C13" t="n">
-        <v>170.0</v>
+        <v>280.0</v>
       </c>
     </row>
     <row r="14">
@@ -553,10 +553,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C14" t="n">
-        <v>165.0</v>
+        <v>270.0</v>
       </c>
     </row>
     <row r="15">
@@ -564,10 +564,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C15" t="n">
-        <v>140.0</v>
+        <v>260.0</v>
       </c>
     </row>
     <row r="16">
@@ -575,10 +575,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C16" t="n">
-        <v>130.0</v>
+        <v>230.0</v>
       </c>
     </row>
     <row r="17">
@@ -586,10 +586,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C17" t="n">
-        <v>120.0</v>
+        <v>210.0</v>
       </c>
     </row>
     <row r="18">
@@ -597,10 +597,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C18" t="n">
-        <v>110.0</v>
+        <v>205.0</v>
       </c>
     </row>
     <row r="19">
@@ -608,10 +608,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C19" t="n">
-        <v>110.0</v>
+        <v>200.0</v>
       </c>
     </row>
   </sheetData>
@@ -644,13 +644,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="n">
-        <v>585.0</v>
+        <v>820.0</v>
       </c>
       <c r="D2" t="n">
-        <v>65.0</v>
+        <v>91.11111111111111</v>
       </c>
     </row>
     <row r="3">
@@ -661,10 +661,10 @@
         <v>21</v>
       </c>
       <c r="C3" t="n">
-        <v>575.0</v>
+        <v>810.0</v>
       </c>
       <c r="D3" t="n">
-        <v>63.888888888888886</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="4">
@@ -672,13 +672,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C4" t="n">
-        <v>545.0</v>
+        <v>805.0</v>
       </c>
       <c r="D4" t="n">
-        <v>60.55555555555556</v>
+        <v>89.44444444444444</v>
       </c>
     </row>
     <row r="5">
@@ -686,13 +686,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" t="n">
-        <v>545.0</v>
+        <v>805.0</v>
       </c>
       <c r="D5" t="n">
-        <v>60.55555555555556</v>
+        <v>89.44444444444444</v>
       </c>
     </row>
     <row r="6">
@@ -700,13 +700,13 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C6" t="n">
-        <v>505.0</v>
+        <v>795.0</v>
       </c>
       <c r="D6" t="n">
-        <v>56.111111111111114</v>
+        <v>88.33333333333333</v>
       </c>
     </row>
     <row r="7">
@@ -714,13 +714,13 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C7" t="n">
-        <v>505.0</v>
+        <v>730.0</v>
       </c>
       <c r="D7" t="n">
-        <v>56.111111111111114</v>
+        <v>81.11111111111111</v>
       </c>
     </row>
     <row r="8">
@@ -728,13 +728,13 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C8" t="n">
-        <v>490.0</v>
+        <v>710.0</v>
       </c>
       <c r="D8" t="n">
-        <v>54.44444444444444</v>
+        <v>78.88888888888889</v>
       </c>
     </row>
     <row r="9">
@@ -742,13 +742,13 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C9" t="n">
-        <v>490.0</v>
+        <v>685.0</v>
       </c>
       <c r="D9" t="n">
-        <v>54.44444444444444</v>
+        <v>76.11111111111111</v>
       </c>
     </row>
     <row r="10">
@@ -756,13 +756,13 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C10" t="n">
-        <v>465.0</v>
+        <v>660.0</v>
       </c>
       <c r="D10" t="n">
-        <v>51.666666666666664</v>
+        <v>73.33333333333333</v>
       </c>
     </row>
     <row r="11">
@@ -773,10 +773,10 @@
         <v>29</v>
       </c>
       <c r="C11" t="n">
-        <v>415.0</v>
+        <v>625.0</v>
       </c>
       <c r="D11" t="n">
-        <v>46.111111111111114</v>
+        <v>69.44444444444444</v>
       </c>
     </row>
     <row r="12">
@@ -784,13 +784,13 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C12" t="n">
-        <v>410.0</v>
+        <v>620.0</v>
       </c>
       <c r="D12" t="n">
-        <v>45.55555555555556</v>
+        <v>68.88888888888889</v>
       </c>
     </row>
     <row r="13">
@@ -798,13 +798,13 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C13" t="n">
-        <v>405.0</v>
+        <v>570.0</v>
       </c>
       <c r="D13" t="n">
-        <v>45.0</v>
+        <v>63.333333333333336</v>
       </c>
     </row>
     <row r="14">
@@ -812,13 +812,13 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14" t="n">
-        <v>365.0</v>
+        <v>545.0</v>
       </c>
       <c r="D14" t="n">
-        <v>40.55555555555556</v>
+        <v>60.55555555555556</v>
       </c>
     </row>
     <row r="15">
@@ -826,13 +826,13 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C15" t="n">
-        <v>360.0</v>
+        <v>530.0</v>
       </c>
       <c r="D15" t="n">
-        <v>40.0</v>
+        <v>58.888888888888886</v>
       </c>
     </row>
     <row r="16">
@@ -840,13 +840,13 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C16" t="n">
-        <v>315.0</v>
+        <v>505.0</v>
       </c>
       <c r="D16" t="n">
-        <v>35.0</v>
+        <v>56.111111111111114</v>
       </c>
     </row>
     <row r="17">
@@ -854,13 +854,13 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C17" t="n">
-        <v>280.0</v>
+        <v>480.0</v>
       </c>
       <c r="D17" t="n">
-        <v>31.11111111111111</v>
+        <v>53.333333333333336</v>
       </c>
     </row>
     <row r="18">
@@ -868,13 +868,13 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C18" t="n">
-        <v>275.0</v>
+        <v>470.0</v>
       </c>
       <c r="D18" t="n">
-        <v>30.555555555555557</v>
+        <v>52.22222222222222</v>
       </c>
     </row>
     <row r="19">
@@ -882,13 +882,13 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C19" t="n">
-        <v>220.0</v>
+        <v>405.0</v>
       </c>
       <c r="D19" t="n">
-        <v>24.444444444444443</v>
+        <v>45.0</v>
       </c>
     </row>
   </sheetData>
